--- a/Mifos Automation Excels/Client/4516-MS-ACTCTR-MEET-WEEKLYonFRI-ACTGRP-ACTCLIENT-DISJLG02JAN-OVERDUEFEEFLAT-COLLSHEETON09JAN.xlsx
+++ b/Mifos Automation Excels/Client/4516-MS-ACTCTR-MEET-WEEKLYonFRI-ACTGRP-ACTCLIENT-DISJLG02JAN-OVERDUEFEEFLAT-COLLSHEETON09JAN.xlsx
@@ -303,7 +303,7 @@
     <t>center4516</t>
   </si>
   <si>
-    <t>4353-MS-Simple-Group-Loan-Product-Loanproduct-OVERDUEFEEFLAT</t>
+    <t>4353-MS-Simple-Group-Loan-Product-Loanproduct-OVERDUEFEEFLAT-1st</t>
   </si>
 </sst>
 </file>
